--- a/CDE_ID_detective_revamp/ValidatedCDEuse/DD_iHOPE Aim1 DataDictionary.xlsx
+++ b/CDE_ID_detective_revamp/ValidatedCDEuse/DD_iHOPE Aim1 DataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmaefos\Code Stuffs\CDE_detective\CDE_ID_detective_revamp\ValidatedCDEuse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B271E8-9028-4572-AC9F-3F96CD658B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C16F93-C6F5-4ADE-890A-A716E7156509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{F9F14A97-45E0-427F-BDCA-6DB499D33E4F}"/>
+    <workbookView xWindow="-38520" yWindow="6345" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{F9F14A97-45E0-427F-BDCA-6DB499D33E4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -3116,18 +3116,18 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I22" sqref="I22:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" customWidth="1"/>
     <col min="4" max="4" width="26.06640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.86328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.1328125" bestFit="1" customWidth="1"/>
